--- a/data-raw/site_station_codes.xlsx
+++ b/data-raw/site_station_codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/strasbaugh_wisc_edu/Documents/Documents/MAMU Project Files/2025 Field Season/2025_Field_Season/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmwin\OneDrive\Desktop\R\MAMUbioacoustics\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0475AB80-95D5-4D3E-A76F-F1956398024C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E53E59AD-9572-4353-81F5-2FBD78062344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{689ABA42-DBF4-4A85-9591-EEF7350407A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{689ABA42-DBF4-4A85-9591-EEF7350407A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="167">
   <si>
     <t>organization</t>
   </si>
@@ -438,6 +438,105 @@
   </si>
   <si>
     <t>AV066</t>
+  </si>
+  <si>
+    <t>AV067</t>
+  </si>
+  <si>
+    <t>AV068</t>
+  </si>
+  <si>
+    <t>AV069</t>
+  </si>
+  <si>
+    <t>AV070</t>
+  </si>
+  <si>
+    <t>AV071</t>
+  </si>
+  <si>
+    <t>AV072</t>
+  </si>
+  <si>
+    <t>AV073</t>
+  </si>
+  <si>
+    <t>AV074</t>
+  </si>
+  <si>
+    <t>AV075</t>
+  </si>
+  <si>
+    <t>AV076</t>
+  </si>
+  <si>
+    <t>AV077</t>
+  </si>
+  <si>
+    <t>AV078</t>
+  </si>
+  <si>
+    <t>AV079</t>
+  </si>
+  <si>
+    <t>Coos</t>
+  </si>
+  <si>
+    <t>Powers</t>
+  </si>
+  <si>
+    <t>GoldBeach</t>
+  </si>
+  <si>
+    <t>CA-N</t>
+  </si>
+  <si>
+    <t>CA-S</t>
+  </si>
+  <si>
+    <t>COOS</t>
+  </si>
+  <si>
+    <t>PWRS</t>
+  </si>
+  <si>
+    <t>GOLD</t>
+  </si>
+  <si>
+    <t>CNOR</t>
+  </si>
+  <si>
+    <t>CSOU</t>
+  </si>
+  <si>
+    <t>cal_fire_station_01</t>
+  </si>
+  <si>
+    <t>cal_fire_station_02</t>
+  </si>
+  <si>
+    <t>cal_fire_station_03</t>
+  </si>
+  <si>
+    <t>cal_fire_station_04</t>
+  </si>
+  <si>
+    <t>cal_fire_station_05</t>
+  </si>
+  <si>
+    <t>cal_fire_station_06</t>
+  </si>
+  <si>
+    <t>cal_fire_station_07</t>
+  </si>
+  <si>
+    <t>cal_fire_station_08</t>
+  </si>
+  <si>
+    <t>cal_fire_station_09</t>
+  </si>
+  <si>
+    <t>cal_fire_station_10</t>
   </si>
 </sst>
 </file>
@@ -815,17 +914,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F73B70-31BA-4E56-A00E-D72FFADCC3E2}">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1424,6 +1523,12 @@
       <c r="B43" t="s">
         <v>11</v>
       </c>
+      <c r="C43" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
@@ -1432,6 +1537,12 @@
       <c r="B44" t="s">
         <v>11</v>
       </c>
+      <c r="C44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
@@ -1440,6 +1551,12 @@
       <c r="B45" t="s">
         <v>11</v>
       </c>
+      <c r="C45" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -1448,6 +1565,12 @@
       <c r="B46" t="s">
         <v>11</v>
       </c>
+      <c r="C46" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -1456,13 +1579,25 @@
       <c r="B47" t="s">
         <v>11</v>
       </c>
+      <c r="C47" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>89</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1470,7 +1605,13 @@
         <v>89</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1478,7 +1619,13 @@
         <v>89</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1488,8 +1635,11 @@
       <c r="B51" t="s">
         <v>12</v>
       </c>
+      <c r="C51" t="s">
+        <v>114</v>
+      </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1499,8 +1649,11 @@
       <c r="B52" t="s">
         <v>12</v>
       </c>
+      <c r="C52" t="s">
+        <v>115</v>
+      </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1510,8 +1663,11 @@
       <c r="B53" t="s">
         <v>12</v>
       </c>
+      <c r="C53" t="s">
+        <v>116</v>
+      </c>
       <c r="D53" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1521,8 +1677,11 @@
       <c r="B54" t="s">
         <v>12</v>
       </c>
+      <c r="C54" t="s">
+        <v>117</v>
+      </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1532,8 +1691,11 @@
       <c r="B55" t="s">
         <v>12</v>
       </c>
+      <c r="C55" t="s">
+        <v>118</v>
+      </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1543,8 +1705,11 @@
       <c r="B56" t="s">
         <v>12</v>
       </c>
+      <c r="C56" t="s">
+        <v>119</v>
+      </c>
       <c r="D56" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1554,8 +1719,11 @@
       <c r="B57" t="s">
         <v>12</v>
       </c>
+      <c r="C57" t="s">
+        <v>120</v>
+      </c>
       <c r="D57" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1565,8 +1733,11 @@
       <c r="B58" t="s">
         <v>12</v>
       </c>
+      <c r="C58" t="s">
+        <v>121</v>
+      </c>
       <c r="D58" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1576,8 +1747,11 @@
       <c r="B59" t="s">
         <v>12</v>
       </c>
+      <c r="C59" t="s">
+        <v>122</v>
+      </c>
       <c r="D59" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1587,8 +1761,11 @@
       <c r="B60" t="s">
         <v>12</v>
       </c>
+      <c r="C60" t="s">
+        <v>123</v>
+      </c>
       <c r="D60" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1598,8 +1775,11 @@
       <c r="B61" t="s">
         <v>12</v>
       </c>
+      <c r="C61" t="s">
+        <v>124</v>
+      </c>
       <c r="D61" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1609,8 +1789,11 @@
       <c r="B62" t="s">
         <v>12</v>
       </c>
+      <c r="C62" t="s">
+        <v>125</v>
+      </c>
       <c r="D62" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1620,8 +1803,11 @@
       <c r="B63" t="s">
         <v>12</v>
       </c>
+      <c r="C63" t="s">
+        <v>126</v>
+      </c>
       <c r="D63" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1631,8 +1817,11 @@
       <c r="B64" t="s">
         <v>12</v>
       </c>
+      <c r="C64" t="s">
+        <v>127</v>
+      </c>
       <c r="D64" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1642,8 +1831,11 @@
       <c r="B65" t="s">
         <v>12</v>
       </c>
+      <c r="C65" t="s">
+        <v>128</v>
+      </c>
       <c r="D65" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1653,8 +1845,11 @@
       <c r="B66" t="s">
         <v>12</v>
       </c>
+      <c r="C66" t="s">
+        <v>129</v>
+      </c>
       <c r="D66" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1664,8 +1859,11 @@
       <c r="B67" t="s">
         <v>12</v>
       </c>
+      <c r="C67" t="s">
+        <v>130</v>
+      </c>
       <c r="D67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1675,8 +1873,11 @@
       <c r="B68" t="s">
         <v>12</v>
       </c>
+      <c r="C68" t="s">
+        <v>131</v>
+      </c>
       <c r="D68" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1686,8 +1887,11 @@
       <c r="B69" t="s">
         <v>12</v>
       </c>
+      <c r="C69" t="s">
+        <v>132</v>
+      </c>
       <c r="D69" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1697,8 +1901,11 @@
       <c r="B70" t="s">
         <v>12</v>
       </c>
+      <c r="C70" t="s">
+        <v>133</v>
+      </c>
       <c r="D70" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1708,8 +1915,11 @@
       <c r="B71" t="s">
         <v>12</v>
       </c>
+      <c r="C71" t="s">
+        <v>134</v>
+      </c>
       <c r="D71" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1719,8 +1929,11 @@
       <c r="B72" t="s">
         <v>12</v>
       </c>
+      <c r="C72" t="s">
+        <v>135</v>
+      </c>
       <c r="D72" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1730,118 +1943,151 @@
       <c r="B73" t="s">
         <v>12</v>
       </c>
+      <c r="C73" t="s">
+        <v>136</v>
+      </c>
       <c r="D73" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="D74" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="D75" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="D76" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="D77" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="D78" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>142</v>
+      </c>
+      <c r="D79" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>143</v>
+      </c>
+      <c r="D80" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>144</v>
+      </c>
+      <c r="D81" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>145</v>
+      </c>
+      <c r="D82" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>146</v>
+      </c>
+      <c r="D83" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -1849,10 +2095,13 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C84" t="s">
+        <v>91</v>
       </c>
       <c r="D84" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -1860,10 +2109,13 @@
         <v>90</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C85" t="s">
+        <v>92</v>
       </c>
       <c r="D85" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -1871,10 +2123,13 @@
         <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C86" t="s">
+        <v>93</v>
       </c>
       <c r="D86" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -1882,10 +2137,13 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C87" t="s">
+        <v>94</v>
       </c>
       <c r="D87" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -1893,10 +2151,13 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C88" t="s">
+        <v>95</v>
       </c>
       <c r="D88" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -1906,8 +2167,11 @@
       <c r="B89" t="s">
         <v>12</v>
       </c>
+      <c r="C89" t="s">
+        <v>157</v>
+      </c>
       <c r="D89" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -1917,8 +2181,11 @@
       <c r="B90" t="s">
         <v>12</v>
       </c>
+      <c r="C90" t="s">
+        <v>158</v>
+      </c>
       <c r="D90" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -1928,8 +2195,11 @@
       <c r="B91" t="s">
         <v>12</v>
       </c>
+      <c r="C91" t="s">
+        <v>159</v>
+      </c>
       <c r="D91" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -1939,8 +2209,11 @@
       <c r="B92" t="s">
         <v>12</v>
       </c>
+      <c r="C92" t="s">
+        <v>160</v>
+      </c>
       <c r="D92" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -1950,7 +2223,80 @@
       <c r="B93" t="s">
         <v>12</v>
       </c>
+      <c r="C93" t="s">
+        <v>161</v>
+      </c>
       <c r="D93" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>90</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>162</v>
+      </c>
+      <c r="D94" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>90</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" t="s">
+        <v>163</v>
+      </c>
+      <c r="D95" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>90</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>164</v>
+      </c>
+      <c r="D96" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>90</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>165</v>
+      </c>
+      <c r="D97" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>90</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>166</v>
+      </c>
+      <c r="D98" t="s">
         <v>110</v>
       </c>
     </row>
